--- a/result/reduced_proc_classification_classifiers_result.xlsx
+++ b/result/reduced_proc_classification_classifiers_result.xlsx
@@ -558,40 +558,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6554458907537752</v>
+        <v>0.6268010600226682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.667</v>
+        <v>0.634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6515037372737235</v>
+        <v>0.6281201169652636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6545</v>
+        <v>0.6234999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6427755438160602</v>
+        <v>0.5087558688532624</v>
       </c>
       <c r="G4" t="n">
-        <v>0.664</v>
+        <v>0.515</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6354577673169685</v>
+        <v>0.5044277824880226</v>
       </c>
       <c r="I4" t="n">
-        <v>0.633</v>
+        <v>0.505</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6310732626263741</v>
+        <v>0.6518307222623771</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6449999999999999</v>
+        <v>0.6719999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6236704241125469</v>
+        <v>0.6365815140379242</v>
       </c>
       <c r="M4" t="n">
-        <v>0.623</v>
+        <v>0.6425000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6879158072437821</v>
+        <v>0.6716795498415088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.869</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5771232416885697</v>
+        <v>0.5681587307412322</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6079999999999999</v>
+        <v>0.591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6612546394139154</v>
+        <v>0.6682751163541797</v>
       </c>
       <c r="G5" t="n">
-        <v>0.712</v>
+        <v>0.9700000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6280565264006495</v>
+        <v>0.5102262724347579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6375</v>
+        <v>0.518</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6600115887073417</v>
+        <v>0.6475559102713125</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8390000000000001</v>
+        <v>0.8280000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5519051454769429</v>
+        <v>0.5375566682583701</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5719999999999998</v>
+        <v>0.5545</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6819007106283836</v>
+        <v>0.6362132927802666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6779999999999999</v>
+        <v>0.649</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7031176730712491</v>
+        <v>0.6306867986216904</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6960000000000001</v>
+        <v>0.6315</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6461938000010374</v>
+        <v>0.4925158945170987</v>
       </c>
       <c r="G6" t="n">
-        <v>0.637</v>
+        <v>0.4869999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6723028864395635</v>
+        <v>0.5006483325187048</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6535</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6676900676365388</v>
+        <v>0.6438320996789805</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6769999999999999</v>
+        <v>0.6240000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6718379462334715</v>
+        <v>0.6769027801196138</v>
       </c>
       <c r="M6" t="n">
-        <v>0.671</v>
+        <v>0.659</v>
       </c>
     </row>
   </sheetData>

--- a/result/reduced_proc_classification_classifiers_result.xlsx
+++ b/result/reduced_proc_classification_classifiers_result.xlsx
@@ -558,40 +558,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6268010600226682</v>
+        <v>0.6648627278815172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.634</v>
+        <v>0.667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6281201169652636</v>
+        <v>0.677166889836075</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6234999999999999</v>
+        <v>0.6719999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5087558688532624</v>
+        <v>0.5240434850327348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.515</v>
+        <v>0.53</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5044277824880226</v>
+        <v>0.5204935166877871</v>
       </c>
       <c r="I4" t="n">
-        <v>0.505</v>
+        <v>0.5205</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6518307222623771</v>
+        <v>0.6434232903758921</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6719999999999999</v>
+        <v>0.675</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6365815140379242</v>
+        <v>0.6209477564719348</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6425000000000001</v>
+        <v>0.6295000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6716795498415088</v>
+        <v>0.4008757564102146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.351</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5681587307412322</v>
+        <v>0.5758951126392987</v>
       </c>
       <c r="E5" t="n">
-        <v>0.591</v>
+        <v>0.5945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6682751163541797</v>
+        <v>0.6680529450303134</v>
       </c>
       <c r="G5" t="n">
         <v>0.9700000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5102262724347579</v>
+        <v>0.5099724786095357</v>
       </c>
       <c r="I5" t="n">
-        <v>0.518</v>
+        <v>0.5175000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6475559102713125</v>
+        <v>0.4035272835243034</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8280000000000001</v>
+        <v>0.4029999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5375566682583701</v>
+        <v>0.5745105902810784</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5545</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6362132927802666</v>
+        <v>0.7218838531824505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.649</v>
+        <v>0.713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6306867986216904</v>
+        <v>0.7571914438514239</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6315</v>
+        <v>0.7375</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4925158945170987</v>
+        <v>0.5054654098681046</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4869999999999999</v>
+        <v>0.506</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5006483325187048</v>
+        <v>0.5074582709594921</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>0.5054999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6438320996789805</v>
+        <v>0.6999827819334058</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6240000000000001</v>
+        <v>0.6910000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6769027801196138</v>
+        <v>0.7396124781829192</v>
       </c>
       <c r="M6" t="n">
-        <v>0.659</v>
+        <v>0.7209999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/result/reduced_proc_classification_classifiers_result.xlsx
+++ b/result/reduced_proc_classification_classifiers_result.xlsx
@@ -558,40 +558,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6648627278815172</v>
+        <v>0.5989399169560075</v>
       </c>
       <c r="C4" t="n">
-        <v>0.667</v>
+        <v>0.604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.677166889836075</v>
+        <v>0.6029096595738366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6719999999999999</v>
+        <v>0.601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5240434850327348</v>
+        <v>0.5703248346767411</v>
       </c>
       <c r="G4" t="n">
-        <v>0.53</v>
+        <v>0.639</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5204935166877871</v>
+        <v>0.5300924034930301</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5205</v>
+        <v>0.531</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6434232903758921</v>
+        <v>0.7076695793592165</v>
       </c>
       <c r="K4" t="n">
-        <v>0.675</v>
+        <v>0.7709999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6209477564719348</v>
+        <v>0.6631644263236074</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6295000000000001</v>
+        <v>0.6815</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4008757564102146</v>
+        <v>0.6498387506782149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.351</v>
+        <v>0.631</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5758951126392987</v>
+        <v>0.6934547866226503</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5945</v>
+        <v>0.669</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6680529450303134</v>
+        <v>0.5007830588947616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9700000000000001</v>
+        <v>0.4819999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5099724786095357</v>
+        <v>0.5408701106508991</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5175000000000001</v>
+        <v>0.5405</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4035272835243034</v>
+        <v>0.683940924245246</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4029999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5745105902810784</v>
+        <v>0.7252685055610366</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.7105</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7218838531824505</v>
+        <v>0.6645574225582199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.713</v>
+        <v>0.68</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7571914438514239</v>
+        <v>0.6672017806586634</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7375</v>
+        <v>0.6679999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5054654098681046</v>
+        <v>0.5428036421342159</v>
       </c>
       <c r="G6" t="n">
-        <v>0.506</v>
+        <v>0.52</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5074582709594921</v>
+        <v>0.5908772466563478</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5054999999999999</v>
+        <v>0.5769999999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6999827819334058</v>
+        <v>0.7223424315728552</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6910000000000001</v>
+        <v>0.731</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7396124781829192</v>
+        <v>0.7402352666560535</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7209999999999999</v>
+        <v>0.724</v>
       </c>
     </row>
   </sheetData>
